--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-204_バッチ機能要件定義(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-204_バッチ機能要件定義(サンプル＆ガイド).xlsx
@@ -1178,16 +1178,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1315,6 +1305,13 @@
     </rPh>
     <rPh sb="56" eb="58">
       <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3560,7 +3557,9 @@
   </sheetPr>
   <dimension ref="A1:S508"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3649,9 +3648,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="10"/>
       <c r="J31" s="14"/>
-      <c r="R31" s="15" t="s">
-        <v>109</v>
-      </c>
+      <c r="R31" s="15"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="10"/>
@@ -3691,20 +3688,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>111</v>
       </c>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="20"/>
       <c r="R39" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S39" s="19"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4179,7 +4180,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4407,7 +4408,7 @@
       <c r="G22" s="24"/>
       <c r="H22" s="25"/>
       <c r="I22" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
@@ -4449,7 +4450,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="25"/>
       <c r="I23" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
@@ -4871,7 +4872,7 @@
       <c r="G33" s="24"/>
       <c r="H33" s="25"/>
       <c r="I33" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>

--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-204_バッチ機能要件定義(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-204_バッチ機能要件定義(サンプル＆ガイド).xlsx
@@ -1178,6 +1178,16 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>TIS株式会社</t>
+    <rPh sb="1" eb="3">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1305,13 +1315,6 @@
     </rPh>
     <rPh sb="56" eb="58">
       <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3557,9 +3560,7 @@
   </sheetPr>
   <dimension ref="A1:S508"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3648,7 +3649,9 @@
       <c r="G31" s="13"/>
       <c r="H31" s="10"/>
       <c r="J31" s="14"/>
-      <c r="R31" s="15"/>
+      <c r="R31" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="10"/>
@@ -3688,24 +3691,20 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="20"/>
       <c r="R39" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S39" s="19"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4180,7 +4179,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4408,7 +4407,7 @@
       <c r="G22" s="24"/>
       <c r="H22" s="25"/>
       <c r="I22" s="23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
@@ -4450,7 +4449,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="25"/>
       <c r="I23" s="23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
@@ -4872,7 +4871,7 @@
       <c r="G33" s="24"/>
       <c r="H33" s="25"/>
       <c r="I33" s="23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>

--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-204_バッチ機能要件定義(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-204_バッチ機能要件定義(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9B0E99-7E1C-4BE6-A2D9-089A0C09DFB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="10575" windowHeight="5670"/>
+    <workbookView xWindow="9660" yWindow="6030" windowWidth="18150" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -17,12 +18,22 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'サンプル（バッチ機能一覧）'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -1176,17 +1187,6 @@
   <si>
     <t>2018年08月29日</t>
     <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
   </si>
   <si>
     <r>
@@ -1308,18 +1308,11 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
@@ -1884,33 +1877,198 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1927,171 +2085,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2173,6 +2166,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2194,7 +2190,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2292,52 +2294,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2358,7 +2314,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2417,7 +2379,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2509,7 +2477,13 @@
     <xdr:ext cx="1005403" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2599,7 +2573,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2680,7 +2660,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="10" idx="1"/>
@@ -2725,7 +2711,13 @@
     <xdr:ext cx="1005403" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2802,7 +2794,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2899,7 +2897,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="12" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -2944,7 +2948,13 @@
     <xdr:ext cx="1005403" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3008,7 +3018,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3105,7 +3121,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="カギ線コネクタ 5"/>
+        <xdr:cNvPr id="6" name="カギ線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="14" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3155,7 +3177,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="カギ線コネクタ 16"/>
+        <xdr:cNvPr id="17" name="カギ線コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="25" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3200,7 +3228,13 @@
     <xdr:ext cx="902811" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3266,7 +3300,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3308,7 +3342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3341,9 +3375,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3376,6 +3427,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3551,15 +3619,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S508"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3662,58 +3728,47 @@
       <c r="R32" s="18"/>
       <c r="S32" s="19"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
       <c r="S36" s="19"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="20"/>
       <c r="P37" s="19"/>
       <c r="Q37" s="20"/>
       <c r="R37" s="19"/>
       <c r="S37" s="21"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="20"/>
       <c r="P38" s="19"/>
       <c r="Q38" s="20"/>
       <c r="R38" s="19"/>
       <c r="S38" s="20"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>110</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="22"/>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="20"/>
-      <c r="R39" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="R39" s="20"/>
       <c r="S39" s="19"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4176,17 +4231,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4408,7 +4460,7 @@
       <c r="G22" s="24"/>
       <c r="H22" s="25"/>
       <c r="I22" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
@@ -4450,7 +4502,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="25"/>
       <c r="I23" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
@@ -4872,7 +4924,7 @@
       <c r="G33" s="24"/>
       <c r="H33" s="25"/>
       <c r="I33" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
@@ -4928,6 +4980,39 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="I28:Y28"/>
+    <mergeCell ref="Z28:AH28"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="I31:Y31"/>
+    <mergeCell ref="Z31:AH31"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I29:Y29"/>
+    <mergeCell ref="Z29:AH29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I30:Y30"/>
+    <mergeCell ref="Z30:AH30"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:Y32"/>
+    <mergeCell ref="Z32:AH32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:Y33"/>
+    <mergeCell ref="Z33:AH33"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I19:Y19"/>
+    <mergeCell ref="Z19:AH19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:Y20"/>
+    <mergeCell ref="Z20:AH20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:Y21"/>
+    <mergeCell ref="Z21:AH21"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:Y23"/>
+    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:Y22"/>
+    <mergeCell ref="Z22:AH22"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="I24:Y24"/>
     <mergeCell ref="Z24:AH24"/>
@@ -4940,39 +5025,6 @@
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="I26:Y26"/>
     <mergeCell ref="Z26:AH26"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:Y21"/>
-    <mergeCell ref="Z21:AH21"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:Y23"/>
-    <mergeCell ref="Z23:AH23"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:Y22"/>
-    <mergeCell ref="Z22:AH22"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="I19:Y19"/>
-    <mergeCell ref="Z19:AH19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:Y20"/>
-    <mergeCell ref="Z20:AH20"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:Y32"/>
-    <mergeCell ref="Z32:AH32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I33:Y33"/>
-    <mergeCell ref="Z33:AH33"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="I28:Y28"/>
-    <mergeCell ref="Z28:AH28"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:Y31"/>
-    <mergeCell ref="Z31:AH31"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I29:Y29"/>
-    <mergeCell ref="Z29:AH29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="I30:Y30"/>
-    <mergeCell ref="Z30:AH30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -4989,7 +5041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BX18"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -5013,223 +5065,223 @@
       </c>
     </row>
     <row r="5" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54" t="s">
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54" t="s">
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="53" t="s">
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="54" t="s">
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="53" t="s">
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="65"/>
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="65"/>
+      <c r="AH5" s="65"/>
+      <c r="AI5" s="65"/>
+      <c r="AJ5" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53" t="s">
+      <c r="AK5" s="67"/>
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="67"/>
+      <c r="AN5" s="67"/>
+      <c r="AO5" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="53"/>
-      <c r="AR5" s="53"/>
-      <c r="AS5" s="53"/>
-      <c r="AT5" s="54" t="s">
+      <c r="AP5" s="67"/>
+      <c r="AQ5" s="67"/>
+      <c r="AR5" s="67"/>
+      <c r="AS5" s="67"/>
+      <c r="AT5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="AU5" s="54"/>
-      <c r="AV5" s="54"/>
-      <c r="AW5" s="54" t="s">
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="AX5" s="54"/>
-      <c r="AY5" s="54"/>
-      <c r="AZ5" s="54"/>
-      <c r="BA5" s="54"/>
-      <c r="BB5" s="54"/>
-      <c r="BC5" s="67" t="s">
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="65"/>
+      <c r="BC5" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="BD5" s="68"/>
-      <c r="BE5" s="69"/>
-      <c r="BF5" s="53" t="s">
+      <c r="BD5" s="76"/>
+      <c r="BE5" s="77"/>
+      <c r="BF5" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="53"/>
-      <c r="BI5" s="53"/>
-      <c r="BJ5" s="53"/>
-      <c r="BK5" s="53"/>
-      <c r="BL5" s="61" t="s">
+      <c r="BG5" s="67"/>
+      <c r="BH5" s="67"/>
+      <c r="BI5" s="67"/>
+      <c r="BJ5" s="67"/>
+      <c r="BK5" s="67"/>
+      <c r="BL5" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="BM5" s="62"/>
-      <c r="BN5" s="62"/>
-      <c r="BO5" s="63"/>
-      <c r="BP5" s="61" t="s">
+      <c r="BM5" s="70"/>
+      <c r="BN5" s="70"/>
+      <c r="BO5" s="71"/>
+      <c r="BP5" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="BQ5" s="62"/>
-      <c r="BR5" s="62"/>
-      <c r="BS5" s="63"/>
-      <c r="BT5" s="54" t="s">
+      <c r="BQ5" s="70"/>
+      <c r="BR5" s="70"/>
+      <c r="BS5" s="71"/>
+      <c r="BT5" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="BU5" s="54"/>
-      <c r="BV5" s="54"/>
-      <c r="BW5" s="54"/>
-      <c r="BX5" s="54"/>
+      <c r="BU5" s="65"/>
+      <c r="BV5" s="65"/>
+      <c r="BW5" s="65"/>
+      <c r="BX5" s="65"/>
     </row>
     <row r="6" spans="1:76" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="56"/>
-      <c r="AK6" s="56"/>
-      <c r="AL6" s="56"/>
-      <c r="AM6" s="56"/>
-      <c r="AN6" s="56"/>
-      <c r="AO6" s="56"/>
-      <c r="AP6" s="56"/>
-      <c r="AQ6" s="56"/>
-      <c r="AR6" s="56"/>
-      <c r="AS6" s="56"/>
-      <c r="AT6" s="55"/>
-      <c r="AU6" s="55"/>
-      <c r="AV6" s="55"/>
-      <c r="AW6" s="55" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="68"/>
+      <c r="AK6" s="68"/>
+      <c r="AL6" s="68"/>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="68"/>
+      <c r="AO6" s="68"/>
+      <c r="AP6" s="68"/>
+      <c r="AQ6" s="68"/>
+      <c r="AR6" s="68"/>
+      <c r="AS6" s="68"/>
+      <c r="AT6" s="66"/>
+      <c r="AU6" s="66"/>
+      <c r="AV6" s="66"/>
+      <c r="AW6" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="AX6" s="55"/>
-      <c r="AY6" s="55"/>
-      <c r="AZ6" s="55"/>
-      <c r="BA6" s="55" t="s">
+      <c r="AX6" s="66"/>
+      <c r="AY6" s="66"/>
+      <c r="AZ6" s="66"/>
+      <c r="BA6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="BB6" s="55"/>
-      <c r="BC6" s="70"/>
-      <c r="BD6" s="71"/>
-      <c r="BE6" s="72"/>
-      <c r="BF6" s="56" t="s">
+      <c r="BB6" s="66"/>
+      <c r="BC6" s="78"/>
+      <c r="BD6" s="79"/>
+      <c r="BE6" s="80"/>
+      <c r="BF6" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="BG6" s="56"/>
-      <c r="BH6" s="56"/>
-      <c r="BI6" s="56" t="s">
+      <c r="BG6" s="68"/>
+      <c r="BH6" s="68"/>
+      <c r="BI6" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="BJ6" s="56"/>
-      <c r="BK6" s="56"/>
-      <c r="BL6" s="64"/>
-      <c r="BM6" s="65"/>
-      <c r="BN6" s="65"/>
-      <c r="BO6" s="66"/>
-      <c r="BP6" s="64"/>
-      <c r="BQ6" s="65"/>
-      <c r="BR6" s="65"/>
-      <c r="BS6" s="66"/>
-      <c r="BT6" s="55"/>
-      <c r="BU6" s="55"/>
-      <c r="BV6" s="55"/>
-      <c r="BW6" s="55"/>
-      <c r="BX6" s="55"/>
+      <c r="BJ6" s="68"/>
+      <c r="BK6" s="68"/>
+      <c r="BL6" s="72"/>
+      <c r="BM6" s="73"/>
+      <c r="BN6" s="73"/>
+      <c r="BO6" s="74"/>
+      <c r="BP6" s="72"/>
+      <c r="BQ6" s="73"/>
+      <c r="BR6" s="73"/>
+      <c r="BS6" s="74"/>
+      <c r="BT6" s="66"/>
+      <c r="BU6" s="66"/>
+      <c r="BV6" s="66"/>
+      <c r="BW6" s="66"/>
+      <c r="BX6" s="66"/>
     </row>
     <row r="7" spans="1:76" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34" t="s">
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34" t="s">
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
       <c r="S7" s="29" t="s">
         <v>82</v>
       </c>
@@ -5237,20 +5289,20 @@
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
       <c r="W7" s="31"/>
-      <c r="X7" s="41" t="s">
+      <c r="X7" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="96"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="96"/>
       <c r="AJ7" s="29" t="s">
         <v>81</v>
       </c>
@@ -5265,80 +5317,80 @@
       <c r="AQ7" s="30"/>
       <c r="AR7" s="30"/>
       <c r="AS7" s="31"/>
-      <c r="AT7" s="34" t="s">
+      <c r="AT7" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="AU7" s="34"/>
-      <c r="AV7" s="34"/>
-      <c r="AW7" s="42" t="s">
+      <c r="AU7" s="95"/>
+      <c r="AV7" s="95"/>
+      <c r="AW7" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="AX7" s="43"/>
-      <c r="AY7" s="43"/>
-      <c r="AZ7" s="44"/>
-      <c r="BA7" s="45">
+      <c r="AX7" s="98"/>
+      <c r="AY7" s="98"/>
+      <c r="AZ7" s="99"/>
+      <c r="BA7" s="100">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="BB7" s="46"/>
-      <c r="BC7" s="73" t="s">
+      <c r="BB7" s="101"/>
+      <c r="BC7" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="BD7" s="74"/>
-      <c r="BE7" s="75"/>
-      <c r="BF7" s="101">
+      <c r="BD7" s="33"/>
+      <c r="BE7" s="34"/>
+      <c r="BF7" s="63">
         <v>5</v>
       </c>
-      <c r="BG7" s="101"/>
-      <c r="BH7" s="101"/>
-      <c r="BI7" s="101" t="s">
+      <c r="BG7" s="63"/>
+      <c r="BH7" s="63"/>
+      <c r="BI7" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="BJ7" s="101"/>
-      <c r="BK7" s="101"/>
-      <c r="BL7" s="89" t="s">
+      <c r="BJ7" s="63"/>
+      <c r="BK7" s="63"/>
+      <c r="BL7" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="BM7" s="90"/>
-      <c r="BN7" s="90"/>
-      <c r="BO7" s="91"/>
-      <c r="BP7" s="89" t="s">
+      <c r="BM7" s="49"/>
+      <c r="BN7" s="49"/>
+      <c r="BO7" s="50"/>
+      <c r="BP7" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="BQ7" s="90"/>
-      <c r="BR7" s="90"/>
-      <c r="BS7" s="91"/>
-      <c r="BT7" s="34"/>
-      <c r="BU7" s="34"/>
-      <c r="BV7" s="34"/>
-      <c r="BW7" s="34"/>
-      <c r="BX7" s="34"/>
+      <c r="BQ7" s="49"/>
+      <c r="BR7" s="49"/>
+      <c r="BS7" s="50"/>
+      <c r="BT7" s="95"/>
+      <c r="BU7" s="95"/>
+      <c r="BV7" s="95"/>
+      <c r="BW7" s="95"/>
+      <c r="BX7" s="95"/>
     </row>
     <row r="8" spans="1:76" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="33" t="s">
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
       <c r="M8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="36"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="87"/>
       <c r="S8" s="23" t="s">
         <v>83</v>
       </c>
@@ -5346,20 +5398,20 @@
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
       <c r="W8" s="25"/>
-      <c r="X8" s="37" t="s">
+      <c r="X8" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="88"/>
       <c r="AJ8" s="23" t="s">
         <v>84</v>
       </c>
@@ -5374,80 +5426,80 @@
       <c r="AQ8" s="24"/>
       <c r="AR8" s="24"/>
       <c r="AS8" s="25"/>
-      <c r="AT8" s="33" t="s">
+      <c r="AT8" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="AU8" s="33"/>
-      <c r="AV8" s="33"/>
-      <c r="AW8" s="38" t="s">
+      <c r="AU8" s="81"/>
+      <c r="AV8" s="81"/>
+      <c r="AW8" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="AX8" s="35"/>
-      <c r="AY8" s="35"/>
-      <c r="AZ8" s="36"/>
-      <c r="BA8" s="39">
+      <c r="AX8" s="86"/>
+      <c r="AY8" s="86"/>
+      <c r="AZ8" s="87"/>
+      <c r="BA8" s="90">
         <v>0</v>
       </c>
-      <c r="BB8" s="40"/>
-      <c r="BC8" s="76" t="s">
+      <c r="BB8" s="91"/>
+      <c r="BC8" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="BD8" s="77"/>
-      <c r="BE8" s="78"/>
-      <c r="BF8" s="32">
+      <c r="BD8" s="36"/>
+      <c r="BE8" s="37"/>
+      <c r="BF8" s="64">
         <v>2</v>
       </c>
-      <c r="BG8" s="32"/>
-      <c r="BH8" s="32"/>
-      <c r="BI8" s="32">
+      <c r="BG8" s="64"/>
+      <c r="BH8" s="64"/>
+      <c r="BI8" s="64">
         <v>10</v>
       </c>
-      <c r="BJ8" s="32"/>
-      <c r="BK8" s="32"/>
-      <c r="BL8" s="48" t="s">
+      <c r="BJ8" s="64"/>
+      <c r="BK8" s="64"/>
+      <c r="BL8" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="BM8" s="49"/>
-      <c r="BN8" s="49"/>
-      <c r="BO8" s="50"/>
-      <c r="BP8" s="48" t="s">
+      <c r="BM8" s="52"/>
+      <c r="BN8" s="52"/>
+      <c r="BO8" s="53"/>
+      <c r="BP8" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="BQ8" s="49"/>
-      <c r="BR8" s="49"/>
-      <c r="BS8" s="50"/>
-      <c r="BT8" s="33"/>
-      <c r="BU8" s="33"/>
-      <c r="BV8" s="33"/>
-      <c r="BW8" s="33"/>
-      <c r="BX8" s="33"/>
+      <c r="BQ8" s="52"/>
+      <c r="BR8" s="52"/>
+      <c r="BS8" s="53"/>
+      <c r="BT8" s="81"/>
+      <c r="BU8" s="81"/>
+      <c r="BV8" s="81"/>
+      <c r="BW8" s="81"/>
+      <c r="BX8" s="81"/>
     </row>
     <row r="9" spans="1:76" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58" t="s">
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="33" t="s">
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
       <c r="M9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="36"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="87"/>
       <c r="S9" s="23" t="s">
         <v>85</v>
       </c>
@@ -5455,20 +5507,20 @@
       <c r="U9" s="24"/>
       <c r="V9" s="24"/>
       <c r="W9" s="25"/>
-      <c r="X9" s="37" t="s">
+      <c r="X9" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="37"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="88"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="88"/>
+      <c r="AF9" s="88"/>
+      <c r="AG9" s="88"/>
+      <c r="AH9" s="88"/>
+      <c r="AI9" s="88"/>
       <c r="AJ9" s="23" t="s">
         <v>75</v>
       </c>
@@ -5483,76 +5535,76 @@
       <c r="AQ9" s="24"/>
       <c r="AR9" s="24"/>
       <c r="AS9" s="25"/>
-      <c r="AT9" s="33" t="s">
+      <c r="AT9" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="38" t="s">
+      <c r="AU9" s="81"/>
+      <c r="AV9" s="81"/>
+      <c r="AW9" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="AX9" s="35"/>
-      <c r="AY9" s="35"/>
-      <c r="AZ9" s="36"/>
-      <c r="BA9" s="39">
+      <c r="AX9" s="86"/>
+      <c r="AY9" s="86"/>
+      <c r="AZ9" s="87"/>
+      <c r="BA9" s="90">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="BB9" s="40"/>
-      <c r="BC9" s="79" t="s">
+      <c r="BB9" s="91"/>
+      <c r="BC9" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="BD9" s="80"/>
-      <c r="BE9" s="81"/>
-      <c r="BF9" s="32">
+      <c r="BD9" s="39"/>
+      <c r="BE9" s="40"/>
+      <c r="BF9" s="64">
         <v>150000</v>
       </c>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="32">
+      <c r="BG9" s="64"/>
+      <c r="BH9" s="64"/>
+      <c r="BI9" s="64">
         <v>200000</v>
       </c>
-      <c r="BJ9" s="32"/>
-      <c r="BK9" s="32"/>
-      <c r="BL9" s="92" t="s">
+      <c r="BJ9" s="64"/>
+      <c r="BK9" s="64"/>
+      <c r="BL9" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="BM9" s="93"/>
-      <c r="BN9" s="93"/>
-      <c r="BO9" s="94"/>
-      <c r="BP9" s="48" t="s">
+      <c r="BM9" s="55"/>
+      <c r="BN9" s="55"/>
+      <c r="BO9" s="56"/>
+      <c r="BP9" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="BQ9" s="49"/>
-      <c r="BR9" s="49"/>
-      <c r="BS9" s="50"/>
-      <c r="BT9" s="33"/>
-      <c r="BU9" s="33"/>
-      <c r="BV9" s="33"/>
-      <c r="BW9" s="33"/>
-      <c r="BX9" s="33"/>
+      <c r="BQ9" s="52"/>
+      <c r="BR9" s="52"/>
+      <c r="BS9" s="53"/>
+      <c r="BT9" s="81"/>
+      <c r="BU9" s="81"/>
+      <c r="BV9" s="81"/>
+      <c r="BW9" s="81"/>
+      <c r="BX9" s="81"/>
     </row>
     <row r="10" spans="1:76" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="33" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="37" t="s">
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
       <c r="S10" s="23" t="s">
         <v>75</v>
       </c>
@@ -5560,20 +5612,20 @@
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
       <c r="W10" s="25"/>
-      <c r="X10" s="37" t="s">
+      <c r="X10" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="88"/>
+      <c r="AD10" s="88"/>
+      <c r="AE10" s="88"/>
+      <c r="AF10" s="88"/>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="88"/>
       <c r="AJ10" s="23" t="s">
         <v>67</v>
       </c>
@@ -5588,72 +5640,72 @@
       <c r="AQ10" s="24"/>
       <c r="AR10" s="24"/>
       <c r="AS10" s="25"/>
-      <c r="AT10" s="33" t="s">
+      <c r="AT10" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="AU10" s="33"/>
-      <c r="AV10" s="33"/>
-      <c r="AW10" s="38" t="s">
+      <c r="AU10" s="81"/>
+      <c r="AV10" s="81"/>
+      <c r="AW10" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="AX10" s="35"/>
-      <c r="AY10" s="35"/>
-      <c r="AZ10" s="36"/>
-      <c r="BA10" s="39">
+      <c r="AX10" s="86"/>
+      <c r="AY10" s="86"/>
+      <c r="AZ10" s="87"/>
+      <c r="BA10" s="90">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="BB10" s="40"/>
-      <c r="BC10" s="82"/>
-      <c r="BD10" s="83"/>
-      <c r="BE10" s="84"/>
-      <c r="BF10" s="32">
+      <c r="BB10" s="91"/>
+      <c r="BC10" s="41"/>
+      <c r="BD10" s="42"/>
+      <c r="BE10" s="43"/>
+      <c r="BF10" s="64">
         <v>50000</v>
       </c>
-      <c r="BG10" s="32"/>
-      <c r="BH10" s="32"/>
-      <c r="BI10" s="32">
+      <c r="BG10" s="64"/>
+      <c r="BH10" s="64"/>
+      <c r="BI10" s="64">
         <v>70000</v>
       </c>
-      <c r="BJ10" s="32"/>
-      <c r="BK10" s="32"/>
-      <c r="BL10" s="95"/>
-      <c r="BM10" s="96"/>
-      <c r="BN10" s="96"/>
-      <c r="BO10" s="97"/>
-      <c r="BP10" s="48" t="s">
+      <c r="BJ10" s="64"/>
+      <c r="BK10" s="64"/>
+      <c r="BL10" s="57"/>
+      <c r="BM10" s="58"/>
+      <c r="BN10" s="58"/>
+      <c r="BO10" s="59"/>
+      <c r="BP10" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="BQ10" s="49"/>
-      <c r="BR10" s="49"/>
-      <c r="BS10" s="50"/>
-      <c r="BT10" s="33"/>
-      <c r="BU10" s="33"/>
-      <c r="BV10" s="33"/>
-      <c r="BW10" s="33"/>
-      <c r="BX10" s="33"/>
+      <c r="BQ10" s="52"/>
+      <c r="BR10" s="52"/>
+      <c r="BS10" s="53"/>
+      <c r="BT10" s="81"/>
+      <c r="BU10" s="81"/>
+      <c r="BV10" s="81"/>
+      <c r="BW10" s="81"/>
+      <c r="BX10" s="81"/>
     </row>
     <row r="11" spans="1:76" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="33" t="s">
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="37" t="s">
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
       <c r="S11" s="23" t="s">
         <v>68</v>
       </c>
@@ -5661,20 +5713,20 @@
       <c r="U11" s="24"/>
       <c r="V11" s="24"/>
       <c r="W11" s="25"/>
-      <c r="X11" s="37" t="s">
+      <c r="X11" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="88"/>
+      <c r="AD11" s="88"/>
+      <c r="AE11" s="88"/>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="88"/>
+      <c r="AH11" s="88"/>
+      <c r="AI11" s="88"/>
       <c r="AJ11" s="23" t="s">
         <v>66</v>
       </c>
@@ -5689,76 +5741,76 @@
       <c r="AQ11" s="24"/>
       <c r="AR11" s="24"/>
       <c r="AS11" s="25"/>
-      <c r="AT11" s="33" t="s">
+      <c r="AT11" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="33"/>
-      <c r="AW11" s="38" t="s">
+      <c r="AU11" s="81"/>
+      <c r="AV11" s="81"/>
+      <c r="AW11" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="AX11" s="35"/>
-      <c r="AY11" s="35"/>
-      <c r="AZ11" s="36"/>
-      <c r="BA11" s="39">
+      <c r="AX11" s="86"/>
+      <c r="AY11" s="86"/>
+      <c r="AZ11" s="87"/>
+      <c r="BA11" s="90">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="BB11" s="40"/>
-      <c r="BC11" s="85"/>
-      <c r="BD11" s="86"/>
-      <c r="BE11" s="87"/>
-      <c r="BF11" s="32">
+      <c r="BB11" s="91"/>
+      <c r="BC11" s="44"/>
+      <c r="BD11" s="45"/>
+      <c r="BE11" s="46"/>
+      <c r="BF11" s="64">
         <v>1</v>
       </c>
-      <c r="BG11" s="32"/>
-      <c r="BH11" s="32"/>
-      <c r="BI11" s="32" t="s">
+      <c r="BG11" s="64"/>
+      <c r="BH11" s="64"/>
+      <c r="BI11" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="BJ11" s="32"/>
-      <c r="BK11" s="32"/>
-      <c r="BL11" s="98"/>
-      <c r="BM11" s="99"/>
-      <c r="BN11" s="99"/>
-      <c r="BO11" s="100"/>
-      <c r="BP11" s="48" t="s">
+      <c r="BJ11" s="64"/>
+      <c r="BK11" s="64"/>
+      <c r="BL11" s="60"/>
+      <c r="BM11" s="61"/>
+      <c r="BN11" s="61"/>
+      <c r="BO11" s="62"/>
+      <c r="BP11" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="BQ11" s="49"/>
-      <c r="BR11" s="49"/>
-      <c r="BS11" s="50"/>
-      <c r="BT11" s="33"/>
-      <c r="BU11" s="33"/>
-      <c r="BV11" s="33"/>
-      <c r="BW11" s="33"/>
-      <c r="BX11" s="33"/>
+      <c r="BQ11" s="52"/>
+      <c r="BR11" s="52"/>
+      <c r="BS11" s="53"/>
+      <c r="BT11" s="81"/>
+      <c r="BU11" s="81"/>
+      <c r="BV11" s="81"/>
+      <c r="BW11" s="81"/>
+      <c r="BX11" s="81"/>
     </row>
     <row r="12" spans="1:76" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33" t="s">
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33" t="s">
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33" t="s">
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
       <c r="S12" s="23" t="s">
         <v>22</v>
       </c>
@@ -5766,20 +5818,20 @@
       <c r="U12" s="24"/>
       <c r="V12" s="24"/>
       <c r="W12" s="25"/>
-      <c r="X12" s="37" t="s">
+      <c r="X12" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="88"/>
+      <c r="AD12" s="88"/>
+      <c r="AE12" s="88"/>
+      <c r="AF12" s="88"/>
+      <c r="AG12" s="88"/>
+      <c r="AH12" s="88"/>
+      <c r="AI12" s="88"/>
       <c r="AJ12" s="23" t="s">
         <v>22</v>
       </c>
@@ -5794,91 +5846,91 @@
       <c r="AQ12" s="24"/>
       <c r="AR12" s="24"/>
       <c r="AS12" s="25"/>
-      <c r="AT12" s="33" t="s">
+      <c r="AT12" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="AU12" s="33"/>
-      <c r="AV12" s="33"/>
-      <c r="AW12" s="38" t="s">
+      <c r="AU12" s="81"/>
+      <c r="AV12" s="81"/>
+      <c r="AW12" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="AX12" s="35"/>
-      <c r="AY12" s="35"/>
-      <c r="AZ12" s="36"/>
-      <c r="BA12" s="47" t="s">
+      <c r="AX12" s="86"/>
+      <c r="AY12" s="86"/>
+      <c r="AZ12" s="87"/>
+      <c r="BA12" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="BB12" s="40"/>
-      <c r="BC12" s="88" t="s">
+      <c r="BB12" s="91"/>
+      <c r="BC12" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="BD12" s="77"/>
-      <c r="BE12" s="78"/>
-      <c r="BF12" s="32" t="s">
+      <c r="BD12" s="36"/>
+      <c r="BE12" s="37"/>
+      <c r="BF12" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="BG12" s="32"/>
-      <c r="BH12" s="32"/>
-      <c r="BI12" s="32" t="s">
+      <c r="BG12" s="64"/>
+      <c r="BH12" s="64"/>
+      <c r="BI12" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="BJ12" s="32"/>
-      <c r="BK12" s="32"/>
-      <c r="BL12" s="48" t="s">
+      <c r="BJ12" s="64"/>
+      <c r="BK12" s="64"/>
+      <c r="BL12" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="BM12" s="49"/>
-      <c r="BN12" s="49"/>
-      <c r="BO12" s="50"/>
-      <c r="BP12" s="48" t="s">
+      <c r="BM12" s="52"/>
+      <c r="BN12" s="52"/>
+      <c r="BO12" s="53"/>
+      <c r="BP12" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="BQ12" s="49"/>
-      <c r="BR12" s="49"/>
-      <c r="BS12" s="50"/>
-      <c r="BT12" s="33" t="s">
+      <c r="BQ12" s="52"/>
+      <c r="BR12" s="52"/>
+      <c r="BS12" s="53"/>
+      <c r="BT12" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="BU12" s="33"/>
-      <c r="BV12" s="33"/>
-      <c r="BW12" s="33"/>
-      <c r="BX12" s="33"/>
+      <c r="BU12" s="81"/>
+      <c r="BV12" s="81"/>
+      <c r="BW12" s="81"/>
+      <c r="BX12" s="81"/>
     </row>
     <row r="13" spans="1:76" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
       <c r="S13" s="23"/>
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
       <c r="V13" s="24"/>
       <c r="W13" s="25"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="88"/>
+      <c r="AD13" s="88"/>
+      <c r="AE13" s="88"/>
+      <c r="AF13" s="88"/>
+      <c r="AG13" s="88"/>
+      <c r="AH13" s="88"/>
+      <c r="AI13" s="88"/>
       <c r="AJ13" s="23"/>
       <c r="AK13" s="24"/>
       <c r="AL13" s="24"/>
@@ -5889,73 +5941,73 @@
       <c r="AQ13" s="24"/>
       <c r="AR13" s="24"/>
       <c r="AS13" s="25"/>
-      <c r="AT13" s="33"/>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="38"/>
-      <c r="AX13" s="35"/>
-      <c r="AY13" s="35"/>
-      <c r="AZ13" s="36"/>
-      <c r="BA13" s="47"/>
-      <c r="BB13" s="40"/>
-      <c r="BC13" s="88"/>
-      <c r="BD13" s="77"/>
-      <c r="BE13" s="78"/>
-      <c r="BF13" s="32"/>
-      <c r="BG13" s="32"/>
-      <c r="BH13" s="32"/>
-      <c r="BI13" s="32"/>
-      <c r="BJ13" s="32"/>
-      <c r="BK13" s="32"/>
-      <c r="BL13" s="48"/>
-      <c r="BM13" s="49"/>
-      <c r="BN13" s="49"/>
-      <c r="BO13" s="50"/>
-      <c r="BP13" s="48"/>
-      <c r="BQ13" s="49"/>
-      <c r="BR13" s="49"/>
-      <c r="BS13" s="50"/>
-      <c r="BT13" s="33"/>
-      <c r="BU13" s="33"/>
-      <c r="BV13" s="33"/>
-      <c r="BW13" s="33"/>
-      <c r="BX13" s="33"/>
+      <c r="AT13" s="81"/>
+      <c r="AU13" s="81"/>
+      <c r="AV13" s="81"/>
+      <c r="AW13" s="89"/>
+      <c r="AX13" s="86"/>
+      <c r="AY13" s="86"/>
+      <c r="AZ13" s="87"/>
+      <c r="BA13" s="94"/>
+      <c r="BB13" s="91"/>
+      <c r="BC13" s="47"/>
+      <c r="BD13" s="36"/>
+      <c r="BE13" s="37"/>
+      <c r="BF13" s="64"/>
+      <c r="BG13" s="64"/>
+      <c r="BH13" s="64"/>
+      <c r="BI13" s="64"/>
+      <c r="BJ13" s="64"/>
+      <c r="BK13" s="64"/>
+      <c r="BL13" s="51"/>
+      <c r="BM13" s="52"/>
+      <c r="BN13" s="52"/>
+      <c r="BO13" s="53"/>
+      <c r="BP13" s="51"/>
+      <c r="BQ13" s="52"/>
+      <c r="BR13" s="52"/>
+      <c r="BS13" s="53"/>
+      <c r="BT13" s="81"/>
+      <c r="BU13" s="81"/>
+      <c r="BV13" s="81"/>
+      <c r="BW13" s="81"/>
+      <c r="BX13" s="81"/>
     </row>
     <row r="14" spans="1:76" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
       <c r="S14" s="23"/>
       <c r="T14" s="24"/>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="25"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="88"/>
+      <c r="AE14" s="88"/>
+      <c r="AF14" s="88"/>
+      <c r="AG14" s="88"/>
+      <c r="AH14" s="88"/>
+      <c r="AI14" s="88"/>
       <c r="AJ14" s="23"/>
       <c r="AK14" s="24"/>
       <c r="AL14" s="24"/>
@@ -5966,41 +6018,172 @@
       <c r="AQ14" s="24"/>
       <c r="AR14" s="24"/>
       <c r="AS14" s="25"/>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="38"/>
-      <c r="AX14" s="35"/>
-      <c r="AY14" s="35"/>
-      <c r="AZ14" s="36"/>
-      <c r="BA14" s="47"/>
-      <c r="BB14" s="40"/>
-      <c r="BC14" s="88"/>
-      <c r="BD14" s="77"/>
-      <c r="BE14" s="78"/>
-      <c r="BF14" s="32"/>
-      <c r="BG14" s="32"/>
-      <c r="BH14" s="32"/>
-      <c r="BI14" s="32"/>
-      <c r="BJ14" s="32"/>
-      <c r="BK14" s="32"/>
-      <c r="BL14" s="48"/>
-      <c r="BM14" s="49"/>
-      <c r="BN14" s="49"/>
-      <c r="BO14" s="50"/>
-      <c r="BP14" s="48"/>
-      <c r="BQ14" s="49"/>
-      <c r="BR14" s="49"/>
-      <c r="BS14" s="50"/>
-      <c r="BT14" s="33"/>
-      <c r="BU14" s="33"/>
-      <c r="BV14" s="33"/>
-      <c r="BW14" s="33"/>
-      <c r="BX14" s="33"/>
+      <c r="AT14" s="81"/>
+      <c r="AU14" s="81"/>
+      <c r="AV14" s="81"/>
+      <c r="AW14" s="89"/>
+      <c r="AX14" s="86"/>
+      <c r="AY14" s="86"/>
+      <c r="AZ14" s="87"/>
+      <c r="BA14" s="94"/>
+      <c r="BB14" s="91"/>
+      <c r="BC14" s="47"/>
+      <c r="BD14" s="36"/>
+      <c r="BE14" s="37"/>
+      <c r="BF14" s="64"/>
+      <c r="BG14" s="64"/>
+      <c r="BH14" s="64"/>
+      <c r="BI14" s="64"/>
+      <c r="BJ14" s="64"/>
+      <c r="BK14" s="64"/>
+      <c r="BL14" s="51"/>
+      <c r="BM14" s="52"/>
+      <c r="BN14" s="52"/>
+      <c r="BO14" s="53"/>
+      <c r="BP14" s="51"/>
+      <c r="BQ14" s="52"/>
+      <c r="BR14" s="52"/>
+      <c r="BS14" s="53"/>
+      <c r="BT14" s="81"/>
+      <c r="BU14" s="81"/>
+      <c r="BV14" s="81"/>
+      <c r="BW14" s="81"/>
+      <c r="BX14" s="81"/>
     </row>
     <row r="18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="155">
+    <mergeCell ref="BI8:BK8"/>
+    <mergeCell ref="BF9:BH9"/>
+    <mergeCell ref="BI9:BK9"/>
+    <mergeCell ref="BF10:BH10"/>
+    <mergeCell ref="BI10:BK10"/>
+    <mergeCell ref="BF11:BH11"/>
+    <mergeCell ref="BI11:BK11"/>
+    <mergeCell ref="BF12:BH12"/>
+    <mergeCell ref="BI12:BK12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="BT7:BX7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="X8:AI8"/>
+    <mergeCell ref="AO8:AS8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AW8:AZ8"/>
+    <mergeCell ref="BA8:BB8"/>
+    <mergeCell ref="BT8:BX8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="X7:AI7"/>
+    <mergeCell ref="AO7:AS7"/>
+    <mergeCell ref="AT7:AV7"/>
+    <mergeCell ref="AW7:AZ7"/>
+    <mergeCell ref="BA7:BB7"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="X14:AI14"/>
+    <mergeCell ref="AO14:AS14"/>
+    <mergeCell ref="AT14:AV14"/>
+    <mergeCell ref="AW14:AZ14"/>
+    <mergeCell ref="BA14:BB14"/>
+    <mergeCell ref="BT12:BX12"/>
+    <mergeCell ref="BT13:BX13"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="BT14:BX14"/>
+    <mergeCell ref="BL12:BO12"/>
+    <mergeCell ref="BL13:BO13"/>
+    <mergeCell ref="BL14:BO14"/>
+    <mergeCell ref="BF13:BH13"/>
+    <mergeCell ref="BI13:BK13"/>
+    <mergeCell ref="BF14:BH14"/>
+    <mergeCell ref="BI14:BK14"/>
+    <mergeCell ref="AJ14:AN14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="X13:AI13"/>
+    <mergeCell ref="AO13:AS13"/>
+    <mergeCell ref="AT13:AV13"/>
+    <mergeCell ref="AW13:AZ13"/>
+    <mergeCell ref="BA13:BB13"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="AJ13:AN13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="X12:AI12"/>
+    <mergeCell ref="AO12:AS12"/>
+    <mergeCell ref="AT12:AV12"/>
+    <mergeCell ref="AW12:AZ12"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="AJ12:AN12"/>
+    <mergeCell ref="BT10:BX10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="X11:AI11"/>
+    <mergeCell ref="AO11:AS11"/>
+    <mergeCell ref="AT11:AV11"/>
+    <mergeCell ref="AW11:AZ11"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BT11:BX11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="X10:AI10"/>
+    <mergeCell ref="AO10:AS10"/>
+    <mergeCell ref="AT10:AV10"/>
+    <mergeCell ref="AW10:AZ10"/>
+    <mergeCell ref="BA10:BB10"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="AJ10:AN10"/>
+    <mergeCell ref="AJ11:AN11"/>
+    <mergeCell ref="BT9:BX9"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="E5:I6"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="M5:R6"/>
+    <mergeCell ref="X5:AI6"/>
+    <mergeCell ref="AO5:AS6"/>
+    <mergeCell ref="AT5:AV6"/>
+    <mergeCell ref="AW5:BB5"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="X9:AI9"/>
+    <mergeCell ref="AO9:AS9"/>
+    <mergeCell ref="AT9:AV9"/>
+    <mergeCell ref="AW9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="AJ7:AN7"/>
+    <mergeCell ref="AJ8:AN8"/>
+    <mergeCell ref="AJ9:AN9"/>
+    <mergeCell ref="BT5:BX6"/>
+    <mergeCell ref="AW6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="S5:W6"/>
+    <mergeCell ref="BP5:BS6"/>
+    <mergeCell ref="BC5:BE6"/>
+    <mergeCell ref="AJ5:AN6"/>
+    <mergeCell ref="BF5:BK5"/>
+    <mergeCell ref="BF6:BH6"/>
+    <mergeCell ref="BI6:BK6"/>
+    <mergeCell ref="BL5:BO6"/>
     <mergeCell ref="BC7:BE7"/>
     <mergeCell ref="BC8:BE8"/>
     <mergeCell ref="BC9:BE9"/>
@@ -6025,137 +6208,6 @@
     <mergeCell ref="BF7:BH7"/>
     <mergeCell ref="BI7:BK7"/>
     <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BT5:BX6"/>
-    <mergeCell ref="AW6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="S5:W6"/>
-    <mergeCell ref="BP5:BS6"/>
-    <mergeCell ref="BC5:BE6"/>
-    <mergeCell ref="AJ5:AN6"/>
-    <mergeCell ref="BF5:BK5"/>
-    <mergeCell ref="BF6:BH6"/>
-    <mergeCell ref="BI6:BK6"/>
-    <mergeCell ref="BL5:BO6"/>
-    <mergeCell ref="BT9:BX9"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="E5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:R6"/>
-    <mergeCell ref="X5:AI6"/>
-    <mergeCell ref="AO5:AS6"/>
-    <mergeCell ref="AT5:AV6"/>
-    <mergeCell ref="AW5:BB5"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="X9:AI9"/>
-    <mergeCell ref="AO9:AS9"/>
-    <mergeCell ref="AT9:AV9"/>
-    <mergeCell ref="AW9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="AJ7:AN7"/>
-    <mergeCell ref="AJ8:AN8"/>
-    <mergeCell ref="AJ9:AN9"/>
-    <mergeCell ref="BT10:BX10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="X11:AI11"/>
-    <mergeCell ref="AO11:AS11"/>
-    <mergeCell ref="AT11:AV11"/>
-    <mergeCell ref="AW11:AZ11"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BT11:BX11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="X10:AI10"/>
-    <mergeCell ref="AO10:AS10"/>
-    <mergeCell ref="AT10:AV10"/>
-    <mergeCell ref="AW10:AZ10"/>
-    <mergeCell ref="BA10:BB10"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="AJ10:AN10"/>
-    <mergeCell ref="AJ11:AN11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="X12:AI12"/>
-    <mergeCell ref="AO12:AS12"/>
-    <mergeCell ref="AT12:AV12"/>
-    <mergeCell ref="AW12:AZ12"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="AJ12:AN12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="X13:AI13"/>
-    <mergeCell ref="AO13:AS13"/>
-    <mergeCell ref="AT13:AV13"/>
-    <mergeCell ref="AW13:AZ13"/>
-    <mergeCell ref="BA13:BB13"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="AJ13:AN13"/>
-    <mergeCell ref="X14:AI14"/>
-    <mergeCell ref="AO14:AS14"/>
-    <mergeCell ref="AT14:AV14"/>
-    <mergeCell ref="AW14:AZ14"/>
-    <mergeCell ref="BA14:BB14"/>
-    <mergeCell ref="BT12:BX12"/>
-    <mergeCell ref="BT13:BX13"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="BT14:BX14"/>
-    <mergeCell ref="BL12:BO12"/>
-    <mergeCell ref="BL13:BO13"/>
-    <mergeCell ref="BL14:BO14"/>
-    <mergeCell ref="BF13:BH13"/>
-    <mergeCell ref="BI13:BK13"/>
-    <mergeCell ref="BF14:BH14"/>
-    <mergeCell ref="BI14:BK14"/>
-    <mergeCell ref="AJ14:AN14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="BT7:BX7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="X8:AI8"/>
-    <mergeCell ref="AO8:AS8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AW8:AZ8"/>
-    <mergeCell ref="BA8:BB8"/>
-    <mergeCell ref="BT8:BX8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="X7:AI7"/>
-    <mergeCell ref="AO7:AS7"/>
-    <mergeCell ref="AT7:AV7"/>
-    <mergeCell ref="AW7:AZ7"/>
-    <mergeCell ref="BA7:BB7"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="BI8:BK8"/>
-    <mergeCell ref="BF9:BH9"/>
-    <mergeCell ref="BI9:BK9"/>
-    <mergeCell ref="BF10:BH10"/>
-    <mergeCell ref="BI10:BK10"/>
-    <mergeCell ref="BF11:BH11"/>
-    <mergeCell ref="BI11:BK11"/>
-    <mergeCell ref="BF12:BH12"/>
-    <mergeCell ref="BI12:BK12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
